--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3902.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3902.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.827856587032773</v>
+        <v>1.486150026321411</v>
       </c>
       <c r="B1">
-        <v>2.338417051375776</v>
+        <v>2.608836650848389</v>
       </c>
       <c r="C1">
-        <v>3.482033160208571</v>
+        <v>3.88152027130127</v>
       </c>
       <c r="D1">
-        <v>6.538742822312795</v>
+        <v>3.940397262573242</v>
       </c>
       <c r="E1">
-        <v>0.7301659777012677</v>
+        <v>2.746790409088135</v>
       </c>
     </row>
   </sheetData>
